--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878ACCD9-11BE-6641-AF45-DCDAB06C6226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67835F51-D9A1-E84C-A470-4882F38FAABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>local data -&gt; ies cluster</t>
+  </si>
+  <si>
+    <t>research: consine similarity</t>
+  </si>
+  <si>
+    <t>tutorial: https://radimrehurek.com/gensim/auto_examples/</t>
+  </si>
+  <si>
+    <t>print Problem: elastic search</t>
+  </si>
+  <si>
+    <t>read 2 papers on Doc2Vec</t>
+  </si>
+  <si>
+    <t>read https://www.geeksforgeeks.org/finding-the-word-analogy-from-given-words-using-word2vec-embeddings/</t>
+  </si>
+  <si>
+    <t>read https://www.geeksforgeeks.org/overview-of-word-embedding-using-embeddings-from-language-models-elmo/</t>
+  </si>
+  <si>
+    <t>read https://www.geeksforgeeks.org/pre-trained-word-embedding-using-glove-in-nlp-models/</t>
+  </si>
+  <si>
+    <t>read https://www.geeksforgeeks.org/python-word-similarity-using-spacy/</t>
+  </si>
+  <si>
+    <t>improved structure and consistency in elasticsearch file</t>
   </si>
 </sst>
 </file>
@@ -192,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -220,6 +247,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,12 +616,18 @@
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -601,6 +635,37 @@
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67835F51-D9A1-E84C-A470-4882F38FAABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212457E1-7BF5-D643-8371-A9F5C4248F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -77,22 +77,22 @@
     <t>print Problem: elastic search</t>
   </si>
   <si>
-    <t>read 2 papers on Doc2Vec</t>
-  </si>
-  <si>
     <t>read https://www.geeksforgeeks.org/finding-the-word-analogy-from-given-words-using-word2vec-embeddings/</t>
   </si>
   <si>
-    <t>read https://www.geeksforgeeks.org/overview-of-word-embedding-using-embeddings-from-language-models-elmo/</t>
-  </si>
-  <si>
-    <t>read https://www.geeksforgeeks.org/pre-trained-word-embedding-using-glove-in-nlp-models/</t>
-  </si>
-  <si>
-    <t>read https://www.geeksforgeeks.org/python-word-similarity-using-spacy/</t>
-  </si>
-  <si>
     <t>improved structure and consistency in elasticsearch file</t>
+  </si>
+  <si>
+    <t>read paper about soft cosine similarity</t>
+  </si>
+  <si>
+    <t>read 2 papers about Doc2Vec</t>
+  </si>
+  <si>
+    <t>research: LDA</t>
+  </si>
+  <si>
+    <t>research: BERTopic</t>
   </si>
 </sst>
 </file>
@@ -219,13 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -247,7 +244,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,102 +573,103 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="4"/>
+    <col min="1" max="1" width="20.83203125" style="3"/>
     <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45144</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="14">
         <v>45145</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212457E1-7BF5-D643-8371-A9F5C4248F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D850DD17-5F98-2442-9D2F-29E263B133E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="39520" yWindow="760" windowWidth="32920" windowHeight="17240" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -572,14 +572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="3"/>
-    <col min="2" max="2" width="41.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="62.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D850DD17-5F98-2442-9D2F-29E263B133E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83789C0-2CD7-C249-B52D-38674A37DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39520" yWindow="760" windowWidth="32920" windowHeight="17240" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>research: BERTopic</t>
+  </si>
+  <si>
+    <t>sbatch: Wie trenne ich log/out file output von location der pdf die bei der Ausführung entstehen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research, argparse input file/dir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remozte cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
   </si>
 </sst>
 </file>
@@ -145,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,42 +224,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,106 +632,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="3"/>
-    <col min="2" max="2" width="45.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="15"/>
+    <col min="2" max="2" width="45.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="7"/>
+    <col min="4" max="4" width="62.5" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="20.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>45144</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>45145</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+    <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>45146</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="10" t="s">
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>45147</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>45148</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="10" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D12" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83789C0-2CD7-C249-B52D-38674A37DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B308142-D601-E145-BD6D-C30344E1E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remozte cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
+  </si>
+  <si>
+    <t>Matrix aus Bildern (vgl. CIFAR-10)</t>
+  </si>
+  <si>
+    <t>Database mit mehr PDFs füllen</t>
+  </si>
+  <si>
+    <t>mehr embeddings als Columns bei Database</t>
+  </si>
+  <si>
+    <t>pdf2image auf Cluster: poppler path not found even though it installed there (pip install poppler-utils)</t>
+  </si>
+  <si>
+    <t>CNN Ähnlichkeiten auf images der PDFs erkennen lassen</t>
   </si>
 </sst>
 </file>
@@ -254,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -280,38 +295,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,15 +641,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="15"/>
+    <col min="1" max="1" width="20.83203125" style="12"/>
     <col min="2" max="2" width="45.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="7"/>
     <col min="4" max="4" width="62.5" style="8" customWidth="1"/>
@@ -659,7 +668,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="15">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -670,8 +679,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -679,8 +688,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -688,8 +697,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -697,7 +706,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>45145</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -708,8 +717,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -717,10 +726,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>45146</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -728,10 +737,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="13">
         <v>45147</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -739,10 +748,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="13">
         <v>45148</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -757,6 +766,31 @@
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D12" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D17" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A145F8-E5F5-2241-A2CD-6AA90FC9D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C6B33-96C9-4444-97F1-9B76DDB8CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -110,10 +110,10 @@
     <t>CNN Ähnlichkeiten auf images der PDFs erkennen lassen</t>
   </si>
   <si>
-    <t>pdf2image auf Cluster</t>
-  </si>
-  <si>
     <t>Matrix aus Bildern (vgl. CIFAR-10), lokale Database mit mehr PDFs füllen</t>
+  </si>
+  <si>
+    <t>pdf2image auf Cluster, visualized 9 most similar images for sample query as matrix</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>45149</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -774,7 +774,7 @@
         <v>45150</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C6B33-96C9-4444-97F1-9B76DDB8CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC3C99-5A9F-E647-A697-A741FE16D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38420" yWindow="840" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>pdf2image auf Cluster, visualized 9 most similar images for sample query as matrix</t>
+  </si>
+  <si>
+    <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus</t>
+  </si>
+  <si>
+    <t>PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243)</t>
   </si>
 </sst>
 </file>
@@ -319,8 +325,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,7 +768,7 @@
       <c r="A11" s="13">
         <v>45149</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -778,6 +784,17 @@
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
+        <v>45151</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC3C99-5A9F-E647-A697-A741FE16D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A2DB2-7C57-CA4D-8AE6-2FBCDDE7BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="840" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -116,10 +116,13 @@
     <t>pdf2image auf Cluster, visualized 9 most similar images for sample query as matrix</t>
   </si>
   <si>
-    <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus</t>
-  </si>
-  <si>
     <t>PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243)</t>
+  </si>
+  <si>
+    <t>save trained models</t>
+  </si>
+  <si>
+    <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,15 +789,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <v>45151</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -805,6 +808,11 @@
     <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A2DB2-7C57-CA4D-8AE6-2FBCDDE7BBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04646C29-FFA2-3649-A09B-F7DA11981950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38420" yWindow="840" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
+  </si>
+  <si>
+    <t>nferSent – Supervised Learning of Sentence Embeddings/Attention mechanism etc.: https://yashuseth.wordpress.com/2018/08/06/infersent-supervised-learning-of-sentence-embeddings/</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,6 +818,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" spans="4:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04646C29-FFA2-3649-A09B-F7DA11981950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFB7F4D-B916-164D-9275-30F4AED38FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="840" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -125,7 +125,13 @@
     <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
   </si>
   <si>
-    <t>nferSent – Supervised Learning of Sentence Embeddings/Attention mechanism etc.: https://yashuseth.wordpress.com/2018/08/06/infersent-supervised-learning-of-sentence-embeddings/</t>
+    <t>InferSent – Supervised Learning of Sentence Embeddings/Attention mechanism etc.: https://yashuseth.wordpress.com/2018/08/06/infersent-supervised-learning-of-sentence-embeddings/</t>
+  </si>
+  <si>
+    <t>infer pretrained sentence encoder without db, bc embedding is too big for maximum dense vector size</t>
+  </si>
+  <si>
+    <t>huggingface: init, save, load sentence transformer</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +809,21 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>45152</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>45153</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFB7F4D-B916-164D-9275-30F4AED38FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FC140-A5AA-A046-B508-2A34543684A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <t>infer pretrained sentence encoder without db, bc embedding is too big for maximum dense vector size</t>
   </si>
   <si>
-    <t>huggingface: init, save, load sentence transformer</t>
+    <t>huggingface: init, save, load sentence transformer, added as embedding to elasticSearch db</t>
   </si>
 </sst>
 </file>
@@ -328,6 +328,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -335,9 +338,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,7 +662,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -697,7 +697,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -706,7 +706,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -715,7 +715,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -798,30 +798,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+    <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>45151</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+    <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>45152</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+    <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>45153</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="8" t="s">

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5FC140-A5AA-A046-B508-2A34543684A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC199CF-13BF-7A4B-9B0E-E567BAF69EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">research, argparse input file/dir </t>
   </si>
   <si>
-    <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remozte cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
-  </si>
-  <si>
     <t>mehr embeddings als Columns bei Database</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>huggingface: init, save, load sentence transformer, added as embedding to elasticSearch db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remote cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +183,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -284,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -339,6 +345,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +770,7 @@
       <c r="A9" s="13">
         <v>45147</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -769,8 +781,8 @@
       <c r="A10" s="13">
         <v>45148</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
+      <c r="B10" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
@@ -781,7 +793,7 @@
         <v>45149</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>18</v>
@@ -792,7 +804,7 @@
         <v>45150</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>19</v>
@@ -803,10 +815,10 @@
         <v>45151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -814,7 +826,7 @@
         <v>45152</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -822,25 +834,25 @@
         <v>45153</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="68" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC199CF-13BF-7A4B-9B0E-E567BAF69EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EB255-76C9-D245-811F-169A42F28522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -65,30 +65,12 @@
     <t>Docker</t>
   </si>
   <si>
-    <t>local data -&gt; ies cluster</t>
-  </si>
-  <si>
-    <t>research: consine similarity</t>
-  </si>
-  <si>
     <t>tutorial: https://radimrehurek.com/gensim/auto_examples/</t>
   </si>
   <si>
-    <t>print Problem: elastic search</t>
-  </si>
-  <si>
-    <t>read https://www.geeksforgeeks.org/finding-the-word-analogy-from-given-words-using-word2vec-embeddings/</t>
-  </si>
-  <si>
     <t>improved structure and consistency in elasticsearch file</t>
   </si>
   <si>
-    <t>read paper about soft cosine similarity</t>
-  </si>
-  <si>
-    <t>read 2 papers about Doc2Vec</t>
-  </si>
-  <si>
     <t>research: LDA</t>
   </si>
   <si>
@@ -101,9 +83,6 @@
     <t xml:space="preserve">research, argparse input file/dir </t>
   </si>
   <si>
-    <t>mehr embeddings als Columns bei Database</t>
-  </si>
-  <si>
     <t>CNN Ähnlichkeiten auf images der PDFs erkennen lassen</t>
   </si>
   <si>
@@ -132,6 +111,36 @@
   </si>
   <si>
     <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remote cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
+  </si>
+  <si>
+    <t>bis 22.08.2023</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Usage Sentence embeddings rather than word embeddings? Ann. Beschreiben</t>
+  </si>
+  <si>
+    <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words)</t>
+  </si>
+  <si>
+    <t>InferSent: is there '.train' to retrain on own corpus with little effort?</t>
+  </si>
+  <si>
+    <t>Google's universal Sentence Encoder: Alter shapes to fix problem</t>
+  </si>
+  <si>
+    <t>Compare .png of documents using either 1. AE, 2. Eigenface/-phase (cf. PCA), 3. from paper</t>
+  </si>
+  <si>
+    <t>Add pipeline image for different models, which shows if stopwords were removed by me or model etc. to bachelor thesis</t>
+  </si>
+  <si>
+    <t>analysis/ evaluation ideas cf. Notability 23.08.2023</t>
+  </si>
+  <si>
+    <t>BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +198,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -290,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -350,6 +365,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,18 +734,12 @@
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -732,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -742,28 +757,19 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45146</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -771,10 +777,7 @@
         <v>45147</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -782,10 +785,10 @@
         <v>45148</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -793,10 +796,10 @@
         <v>45149</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -804,10 +807,10 @@
         <v>45150</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -815,10 +818,10 @@
         <v>45151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -826,7 +829,10 @@
         <v>45152</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -834,25 +840,65 @@
         <v>45153</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="68" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7EB255-76C9-D245-811F-169A42F28522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DC449A-CFE3-6846-9931-2111E4222E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
+  </si>
+  <si>
+    <t>Sbatch skript: different out and result location path</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,6 +904,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="28" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DC449A-CFE3-6846-9931-2111E4222E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F25BC-254A-074E-BADD-4E459E4FD1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
   </si>
   <si>
-    <t>Sbatch skript: different out and result location path</t>
+    <t xml:space="preserve">read Universal Encoder paper, log path != result path (sbatch skripts on cluster), </t>
   </si>
 </sst>
 </file>
@@ -364,9 +364,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -375,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,9 +695,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
       <c r="A10" s="13">
         <v>45148</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -847,66 +847,67 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>45161</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D23" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D28" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F25BC-254A-074E-BADD-4E459E4FD1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E9276-D878-4C43-8B86-66988A437B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Task</t>
   </si>
@@ -101,9 +101,6 @@
     <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
   </si>
   <si>
-    <t>InferSent – Supervised Learning of Sentence Embeddings/Attention mechanism etc.: https://yashuseth.wordpress.com/2018/08/06/infersent-supervised-learning-of-sentence-embeddings/</t>
-  </si>
-  <si>
     <t>infer pretrained sentence encoder without db, bc embedding is too big for maximum dense vector size</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>Usage Sentence embeddings rather than word embeddings? Ann. Beschreiben</t>
   </si>
   <si>
-    <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words)</t>
-  </si>
-  <si>
-    <t>InferSent: is there '.train' to retrain on own corpus with little effort?</t>
-  </si>
-  <si>
     <t>Google's universal Sentence Encoder: Alter shapes to fix problem</t>
   </si>
   <si>
@@ -140,10 +131,13 @@
     <t>analysis/ evaluation ideas cf. Notability 23.08.2023</t>
   </si>
   <si>
-    <t>BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
-  </si>
-  <si>
     <t xml:space="preserve">read Universal Encoder paper, log path != result path (sbatch skripts on cluster), </t>
+  </si>
+  <si>
+    <t>InferSent: project does not support training: https://github.com/facebookresearch/InferSent/issues/82</t>
+  </si>
+  <si>
+    <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words), BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
   </si>
 </sst>
 </file>
@@ -373,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,7 +782,7 @@
         <v>45148</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>11</v>
@@ -832,10 +826,10 @@
         <v>45152</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -843,71 +837,65 @@
         <v>45153</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>45161</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>35</v>
+      <c r="B17" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45162</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D22" s="8" t="s">
-        <v>29</v>
+    <row r="19" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>45163</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D23" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E9276-D878-4C43-8B86-66988A437B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C5C82C-2339-8942-B713-D32360D85BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Usage Sentence embeddings rather than word embeddings? Ann. Beschreiben</t>
   </si>
   <si>
-    <t>Google's universal Sentence Encoder: Alter shapes to fix problem</t>
-  </si>
-  <si>
     <t>Compare .png of documents using either 1. AE, 2. Eigenface/-phase (cf. PCA), 3. from paper</t>
   </si>
   <si>
@@ -134,10 +131,16 @@
     <t xml:space="preserve">read Universal Encoder paper, log path != result path (sbatch skripts on cluster), </t>
   </si>
   <si>
-    <t>InferSent: project does not support training: https://github.com/facebookresearch/InferSent/issues/82</t>
-  </si>
-  <si>
     <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words), BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
+  </si>
+  <si>
+    <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?)</t>
+  </si>
+  <si>
+    <t>make TFIDF searchable</t>
+  </si>
+  <si>
+    <t>InferSent hypothese: project does not support training: https://github.com/facebookresearch/InferSent/issues/82 , Universal Sentence Encoder: the embedding uses n-grams of documents close to current doc (like a window) to embed it, cf. DAN in https://amitness.com/2020/06/universal-sentence-encoder/ -&gt; unable to fix subtraction problem, started working on eigenfaces</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +856,7 @@
         <v>45161</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>15</v>
@@ -864,38 +867,43 @@
         <v>45162</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D23" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C5C82C-2339-8942-B713-D32360D85BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3817270-4C4B-3141-A0C0-8DE406FF1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>InferSent hypothese: project does not support training: https://github.com/facebookresearch/InferSent/issues/82 , Universal Sentence Encoder: the embedding uses n-grams of documents close to current doc (like a window) to embed it, cf. DAN in https://amitness.com/2020/06/universal-sentence-encoder/ -&gt; unable to fix subtraction problem, started working on eigenfaces</t>
+  </si>
+  <si>
+    <t>cluster PCA results of images</t>
+  </si>
+  <si>
+    <t>why are cluster sizes of PCA results imbalanced?</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,6 +887,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>45164</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D22" s="8" t="s">
         <v>33</v>
@@ -904,6 +918,11 @@
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3817270-4C4B-3141-A0C0-8DE406FF1601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59CC74-B658-E947-98DC-DD2F68A144D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-34580" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?)</t>
   </si>
   <si>
-    <t>make TFIDF searchable</t>
-  </si>
-  <si>
     <t>InferSent hypothese: project does not support training: https://github.com/facebookresearch/InferSent/issues/82 , Universal Sentence Encoder: the embedding uses n-grams of documents close to current doc (like a window) to embed it, cf. DAN in https://amitness.com/2020/06/universal-sentence-encoder/ -&gt; unable to fix subtraction problem, started working on eigenfaces</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>why are cluster sizes of PCA results imbalanced?</t>
+  </si>
+  <si>
+    <t>solved errors of PCA clustering, added to database</t>
+  </si>
+  <si>
+    <t>make cluster &amp; PCA in db searchable</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="A20:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +887,7 @@
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -892,12 +895,18 @@
         <v>45164</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D22" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>45166</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -922,7 +931,7 @@
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59CC74-B658-E947-98DC-DD2F68A144D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE31F6-45EC-5549-8395-EEBE6FE98691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34580" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38380" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -146,10 +146,7 @@
     <t>why are cluster sizes of PCA results imbalanced?</t>
   </si>
   <si>
-    <t>solved errors of PCA clustering, added to database</t>
-  </si>
-  <si>
-    <t>make cluster &amp; PCA in db searchable</t>
+    <t>solved errors of PCA clustering, added PCA-Cluster to database, DB has to be deleted to update index (!!!), deleted one tfidf embedding since it is too big, other tfidf is null vector (Problem!), db is searchable for same cluster documents</t>
   </si>
 </sst>
 </file>
@@ -704,7 +701,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,15 +895,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>45166</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBE31F6-45EC-5549-8395-EEBE6FE98691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E163BD6-7549-FB45-90CC-0FA67C461A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-34560" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>solved errors of PCA clustering, added PCA-Cluster to database, DB has to be deleted to update index (!!!), deleted one tfidf embedding since it is too big, other tfidf is null vector (Problem!), db is searchable for same cluster documents</t>
+  </si>
+  <si>
+    <t>AutoEncoder + Kmeans Clustering</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,10 +900,18 @@
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>45168</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E163BD6-7549-FB45-90CC-0FA67C461A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB660058-049F-A24C-8DEB-BAD8AB2C2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -77,9 +77,6 @@
     <t>research: BERTopic</t>
   </si>
   <si>
-    <t>sbatch: Wie trenne ich log/out file output von location der pdf die bei der Ausführung entstehen?</t>
-  </si>
-  <si>
     <t xml:space="preserve">research, argparse input file/dir </t>
   </si>
   <si>
@@ -92,12 +89,6 @@
     <t>pdf2image auf Cluster, visualized 9 most similar images for sample query as matrix</t>
   </si>
   <si>
-    <t>PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243)</t>
-  </si>
-  <si>
-    <t>save trained models</t>
-  </si>
-  <si>
     <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
   </si>
   <si>
@@ -150,6 +141,81 @@
   </si>
   <si>
     <t>AutoEncoder + Kmeans Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243), SOLUTION: create multple features/ properties for large vector and search multiple times when querying OR use PCA/ AE to reduce dimensionality </t>
+  </si>
+  <si>
+    <t>TFIDF: strip accents</t>
+  </si>
+  <si>
+    <t>TFIDF: automatic preprocessing? Ggf. stemming/ lemmatization (using NLTK) to reduce vocabulary</t>
+  </si>
+  <si>
+    <t>TFIDF: preprocessing: diskretisiere Zahlen: ersetze bis fünfstellig z.B. durch small_number etc.</t>
+  </si>
+  <si>
+    <t>TFIDF: add extra cell to embedding, acts as flag for null embeddings</t>
+  </si>
+  <si>
+    <t>InferSent: + encoder layer of AE to reduce dimensionality</t>
+  </si>
+  <si>
+    <t>Cluster: bewerten lassen</t>
+  </si>
+  <si>
+    <t>Cluster Algo: DBSCAN (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster Algo: HDBSCAN  (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster Algo: OPTICS (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster für Bilder und Text nutzbar</t>
+  </si>
+  <si>
+    <t>Universal Sentence Encoder: nicht auf GPU, finde Artikel mit gleichem Problem online</t>
+  </si>
+  <si>
+    <t>Universal Sentence Encoder: try huggingface version</t>
+  </si>
+  <si>
+    <t>Eigenfaces: find paper</t>
+  </si>
+  <si>
+    <t>Eigenfaces: hohe dim &lt;-&gt; sparse &lt;-&gt; Clustern schwer</t>
+  </si>
+  <si>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors</t>
+  </si>
+  <si>
+    <t>Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
+  </si>
+  <si>
+    <t>Eigenfaces: display Entwicklung von Rekonstruktionsfehler, way to find best # components</t>
+  </si>
+  <si>
+    <t>BA: Pipeline Bild s. Christians Zeichnung, 62GB Daten -&gt; offline verarbeiten -&gt; DB -&gt; auf kleinem System durchsuchbar</t>
+  </si>
+  <si>
+    <t>try Convolutional AE</t>
+  </si>
+  <si>
+    <t>try AE with higher dimensionality and use PCA to visualize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA: AE latent space normal verteilt???? </t>
+  </si>
+  <si>
+    <t>BA: Kmeans Hypothese ist, dass Daten normalverteilt. Deshalb Kmeans cluster eher rund -&gt; deshalb wäre anderer Algo, z.B. Var. Bayesian Mixture Model interessant</t>
+  </si>
+  <si>
+    <t>BA: OPTICS etc. in Absatz Funktion erklären + Referenz</t>
+  </si>
+  <si>
+    <t>Lizenzen: GPL kann man nicht so einfach nutzen</t>
   </si>
 </sst>
 </file>
@@ -701,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,12 +809,18 @@
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -756,15 +828,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45145</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -772,6 +847,9 @@
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -780,13 +858,19 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>45147</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -794,10 +878,10 @@
         <v>45148</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -805,10 +889,10 @@
         <v>45149</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -816,10 +900,10 @@
         <v>45150</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -827,10 +911,10 @@
         <v>45151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -838,10 +922,10 @@
         <v>45152</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -849,15 +933,21 @@
         <v>45153</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>25</v>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -865,10 +955,10 @@
         <v>45161</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
@@ -876,10 +966,10 @@
         <v>45162</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -887,7 +977,10 @@
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -895,7 +988,10 @@
         <v>45164</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -903,7 +999,10 @@
         <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -911,32 +1010,85 @@
         <v>45168</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D23" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D28" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D29" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D31" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="D35" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB660058-049F-A24C-8DEB-BAD8AB2C2E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426CF7F-EA3F-BA41-8BAD-D14DBCD777E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1580" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243), SOLUTION: create multple features/ properties for large vector and search multiple times when querying OR use PCA/ AE to reduce dimensionality </t>
   </si>
   <si>
-    <t>TFIDF: strip accents</t>
-  </si>
-  <si>
     <t>TFIDF: automatic preprocessing? Ggf. stemming/ lemmatization (using NLTK) to reduce vocabulary</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Lizenzen: GPL kann man nicht so einfach nutzen</t>
+  </si>
+  <si>
+    <t>TFIDF: strip accents in db embedding</t>
   </si>
 </sst>
 </file>
@@ -427,6 +427,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -436,16 +442,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -805,7 +805,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -823,7 +823,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="A9" s="13">
         <v>45147</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -877,7 +877,7 @@
       <c r="A10" s="13">
         <v>45148</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -924,9 +924,6 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -936,40 +933,40 @@
         <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>45161</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>45162</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -980,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -991,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -1002,7 +999,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1013,82 +1010,88 @@
         <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>45168</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426CF7F-EA3F-BA41-8BAD-D14DBCD777E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50467BDF-B16B-FF40-A9B2-BAE560BEFE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>cluster PCA results of images</t>
   </si>
   <si>
-    <t>why are cluster sizes of PCA results imbalanced?</t>
-  </si>
-  <si>
     <t>solved errors of PCA clustering, added PCA-Cluster to database, DB has to be deleted to update index (!!!), deleted one tfidf embedding since it is too big, other tfidf is null vector (Problem!), db is searchable for same cluster documents</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>TFIDF: strip accents in db embedding</t>
+  </si>
+  <si>
+    <t>why are cluster sizes of PCA results imbalanced? Because they are too sparse</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,10 +1007,10 @@
         <v>45168</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1018,80 +1018,80 @@
         <v>45168</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/BA_tasks.xlsx
+++ b/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50467BDF-B16B-FF40-A9B2-BAE560BEFE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332DA12-135F-7748-BD63-23B400104CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -212,10 +212,10 @@
     <t>Lizenzen: GPL kann man nicht so einfach nutzen</t>
   </si>
   <si>
-    <t>TFIDF: strip accents in db embedding</t>
-  </si>
-  <si>
     <t>why are cluster sizes of PCA results imbalanced? Because they are too sparse</t>
+  </si>
+  <si>
+    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +914,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1013,12 +1013,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>45168</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>43</v>
